--- a/EasyPro/wwwroot/UploadExcel/CoreProgramm_ExcelImport.xlsx
+++ b/EasyPro/wwwroot/UploadExcel/CoreProgramm_ExcelImport.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newtech\SourceCode\CSharp\EasyPro\EasyPro\EasyPro\wwwroot\UploadExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EASY 2022\EasyPro\EasyPro\wwwroot\UploadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603DB341-2A67-4508-BD93-05597ACBA8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
-    <sheet name="employee" sheetId="1" r:id="rId1"/>
+    <sheet name="INTAKECOLLECTION" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Sno</t>
   </si>
@@ -32,19 +31,37 @@
   </si>
   <si>
     <t>Milk</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TransCode</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,8 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,16 +401,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,8 +423,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -412,8 +440,14 @@
       <c r="C2">
         <v>45</v>
       </c>
+      <c r="D2" s="2">
+        <v>45129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -423,8 +457,18 @@
       <c r="C3">
         <v>33</v>
       </c>
+      <c r="D3" s="2">
+        <v>45129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>